--- a/fhir/core/StructureDefinition-ipa-dk-core-condition.xlsx
+++ b/fhir/core/StructureDefinition-ipa-dk-core-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -373,7 +373,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -477,6 +477,10 @@
     <t>Although a condition may be caused by a substance, this is not intended to be used to record allergies/adverse reactions to substances.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>.typeCode</t>
   </si>
   <si>
@@ -496,10 +500,6 @@
     <t>Extension for the last date a Condition-instance was confirmed valid in its current state. E.g. with its current clinical- and verification status, stage and severity. Typically the last performed follow-up</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Condition.extension:notFollowedAnymore</t>
   </si>
   <si>
@@ -663,7 +663,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-category</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-category|4.0.1</t>
   </si>
   <si>
     <t>&lt; 404684003 |Clinical finding|</t>
@@ -690,7 +690,7 @@
     <t>Coding of the severity with a terminology is preferred, where possible.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity|4.0.1</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -730,7 +730,7 @@
     <t>Identification of the condition or diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -992,6 +992,9 @@
     <t>SNOMED CT condition code</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+  </si>
+  <si>
     <t>Condition.code.coding:SCTConditionCode.id</t>
   </si>
   <si>
@@ -1154,7 +1157,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -1201,7 +1204,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1394,7 +1397,7 @@
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-1
@@ -1407,7 +1410,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
+    <t xml:space="preserve">Reference(ClinicalImpression|4.0.1|DiagnosticReport|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1432,7 +1435,7 @@
     <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage-type|4.0.1</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage type"]</t>
@@ -1478,7 +1481,7 @@
     <t>Codes that describe the manifestation or symptoms of a condition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
+    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1497,7 +1500,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1840,17 +1843,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.35546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.4375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="248.1484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="214.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1859,28 +1862,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="88.2578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="76.1328125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="66.34375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="212.8046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="57.23046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="183.56640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3061,7 +3064,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -3076,7 +3079,7 @@
         <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>79</v>
@@ -3087,13 +3090,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3115,13 +3118,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3181,7 +3184,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>142</v>
@@ -3301,7 +3304,7 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>142</v>
@@ -5566,7 +5569,7 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>229</v>
+        <v>312</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5619,7 +5622,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>262</v>
@@ -5737,7 +5740,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>264</v>
@@ -5857,7 +5860,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>266</v>
@@ -5905,7 +5908,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -5979,7 +5982,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>276</v>
@@ -6099,7 +6102,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>284</v>
@@ -6219,7 +6222,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>292</v>
@@ -6339,7 +6342,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>300</v>
@@ -6461,13 +6464,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>247</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>79</v>
@@ -6492,7 +6495,7 @@
         <v>248</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>250</v>
@@ -6585,7 +6588,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>262</v>
@@ -6703,7 +6706,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>264</v>
@@ -6823,7 +6826,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>266</v>
@@ -6871,7 +6874,7 @@
         <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>79</v>
@@ -6945,7 +6948,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>276</v>
@@ -7065,7 +7068,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>284</v>
@@ -7185,7 +7188,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>292</v>
@@ -7305,7 +7308,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>300</v>
@@ -7427,13 +7430,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>247</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>79</v>
@@ -7458,7 +7461,7 @@
         <v>248</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>250</v>
@@ -7551,7 +7554,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>262</v>
@@ -7669,7 +7672,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>264</v>
@@ -7789,7 +7792,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>266</v>
@@ -7837,7 +7840,7 @@
         <v>79</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>79</v>
@@ -7911,7 +7914,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>276</v>
@@ -8031,7 +8034,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>284</v>
@@ -8151,7 +8154,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>292</v>
@@ -8271,7 +8274,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>300</v>
@@ -8393,13 +8396,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>247</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>79</v>
@@ -8424,7 +8427,7 @@
         <v>248</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>250</v>
@@ -8517,7 +8520,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>262</v>
@@ -8635,7 +8638,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>264</v>
@@ -8755,7 +8758,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>266</v>
@@ -8803,7 +8806,7 @@
         <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>79</v>
@@ -8877,7 +8880,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>276</v>
@@ -8997,7 +9000,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>284</v>
@@ -9117,7 +9120,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>292</v>
@@ -9237,7 +9240,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>300</v>
@@ -9359,10 +9362,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9388,16 +9391,16 @@
         <v>237</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9446,7 +9449,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9467,10 +9470,10 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9481,10 +9484,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9510,13 +9513,13 @@
         <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9545,10 +9548,10 @@
         <v>227</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9566,7 +9569,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9584,31 +9587,31 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9627,17 +9630,17 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9686,7 +9689,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>91</v>
@@ -9701,19 +9704,19 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>79</v>
@@ -9721,10 +9724,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9747,16 +9750,16 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9806,7 +9809,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9821,19 +9824,19 @@
         <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>79</v>
@@ -9841,10 +9844,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9867,16 +9870,16 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9926,7 +9929,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9941,19 +9944,19 @@
         <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>79</v>
@@ -9961,10 +9964,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9987,16 +9990,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10046,7 +10049,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10055,7 +10058,7 @@
         <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>103</v>
@@ -10070,10 +10073,10 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10081,10 +10084,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10107,13 +10110,13 @@
         <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10164,7 +10167,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10185,13 +10188,13 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>79</v>
@@ -10199,10 +10202,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10225,13 +10228,13 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10282,7 +10285,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10306,10 +10309,10 @@
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>79</v>
@@ -10317,10 +10320,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10343,13 +10346,13 @@
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10400,7 +10403,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10421,13 +10424,13 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>79</v>
@@ -10435,10 +10438,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10461,13 +10464,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10518,7 +10521,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10530,7 +10533,7 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10542,7 +10545,7 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10553,10 +10556,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10671,10 +10674,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10791,14 +10794,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10820,10 +10823,10 @@
         <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>165</v>
@@ -10878,7 +10881,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10913,10 +10916,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10942,10 +10945,10 @@
         <v>178</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10975,10 +10978,10 @@
         <v>227</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -10996,7 +10999,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11005,7 +11008,7 @@
         <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>103</v>
@@ -11014,7 +11017,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>188</v>
@@ -11031,10 +11034,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11057,13 +11060,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11114,7 +11117,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11123,7 +11126,7 @@
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>103</v>
@@ -11138,7 +11141,7 @@
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11149,10 +11152,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11178,10 +11181,10 @@
         <v>178</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11211,10 +11214,10 @@
         <v>227</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -11232,7 +11235,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11256,7 +11259,7 @@
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11267,10 +11270,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11293,16 +11296,16 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11352,7 +11355,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11364,7 +11367,7 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
@@ -11376,7 +11379,7 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11387,10 +11390,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11505,10 +11508,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11625,14 +11628,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11654,10 +11657,10 @@
         <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>165</v>
@@ -11712,7 +11715,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11747,10 +11750,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11776,10 +11779,10 @@
         <v>178</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11809,10 +11812,10 @@
         <v>227</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>79</v>
@@ -11830,7 +11833,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11839,13 +11842,13 @@
         <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>208</v>
@@ -11854,10 +11857,10 @@
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>79</v>
@@ -11865,10 +11868,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11891,13 +11894,13 @@
         <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11948,7 +11951,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -11957,7 +11960,7 @@
         <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
@@ -11972,10 +11975,10 @@
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -11983,10 +11986,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12009,13 +12012,13 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12066,7 +12069,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12081,16 +12084,16 @@
         <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
